--- a/clientes/Quantum Engenharia Elétrica Ltda/Orcamentos/São José - Páscoa/100.xlsx
+++ b/clientes/Quantum Engenharia Elétrica Ltda/Orcamentos/São José - Páscoa/100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ECB5CF5-2874-43E7-BEE8-922F7DEBFCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BB01DF-46CE-4F91-91C0-4B377E7B8A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,18 @@
     <sheet name="paraFilter" sheetId="6" r:id="rId2"/>
     <sheet name="resultado" sheetId="5" r:id="rId3"/>
     <sheet name="cenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="cenario10" sheetId="17" r:id="rId5"/>
-    <sheet name="cenario9" sheetId="16" r:id="rId6"/>
-    <sheet name="cenario8" sheetId="15" r:id="rId7"/>
-    <sheet name="cenario7" sheetId="14" r:id="rId8"/>
-    <sheet name="cenario6" sheetId="13" r:id="rId9"/>
-    <sheet name="cenario5" sheetId="12" r:id="rId10"/>
-    <sheet name="cenario4" sheetId="11" r:id="rId11"/>
-    <sheet name="cenario3" sheetId="10" r:id="rId12"/>
-    <sheet name="cenario2" sheetId="9" r:id="rId13"/>
-    <sheet name="cenario1" sheetId="8" r:id="rId14"/>
-    <sheet name="cenario0" sheetId="7" r:id="rId15"/>
+    <sheet name="cenario11" sheetId="18" r:id="rId5"/>
+    <sheet name="cenario10" sheetId="17" r:id="rId6"/>
+    <sheet name="cenario9" sheetId="16" r:id="rId7"/>
+    <sheet name="cenario8" sheetId="15" r:id="rId8"/>
+    <sheet name="cenario7" sheetId="14" r:id="rId9"/>
+    <sheet name="cenario6" sheetId="13" r:id="rId10"/>
+    <sheet name="cenario5" sheetId="12" r:id="rId11"/>
+    <sheet name="cenario4" sheetId="11" r:id="rId12"/>
+    <sheet name="cenario3" sheetId="10" r:id="rId13"/>
+    <sheet name="cenario2" sheetId="9" r:id="rId14"/>
+    <sheet name="cenario1" sheetId="8" r:id="rId15"/>
+    <sheet name="cenario0" sheetId="7" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="326">
   <si>
     <t>id</t>
   </si>
@@ -393,9 +394,6 @@
   </si>
   <si>
     <t>Refletor de LED para ambientes externos na cor branca, medindo entre: mínimo: 33cm de altura x 29cm de largura x 11cm de comprimento. Potência do refletor: 100W e 9500 lumens. Índice de proteção 66 (IP66). Peso do produto: 2,5KG. Multi-tensão: 90-265V. Duração média de até 50.000 horas. Produto reciclável.</t>
-  </si>
-  <si>
-    <t>C:\github\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\21.xlsx</t>
   </si>
   <si>
     <t>Praça Arnoldo de Souza - Cenário 02</t>
@@ -1014,6 +1012,24 @@
   </si>
   <si>
     <t>Praça do Centro Histórico</t>
+  </si>
+  <si>
+    <t>2 para os PVCs e 1 para guirlanda</t>
+  </si>
+  <si>
+    <t>C:\github\myxlsm\orcamentosParaClientes\OrcamentoGerado_Quantum Engenharia Elétrica Ltda.xlsx</t>
+  </si>
+  <si>
+    <t>Contato 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Simões </t>
+  </si>
+  <si>
+    <t>C:\github\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\115.xlsx</t>
+  </si>
+  <si>
+    <t>qqqq</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1355,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -1357,7 +1373,7 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -1418,13 +1434,22 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>324</v>
+      </c>
+      <c r="G2" t="s">
+        <v>322</v>
       </c>
       <c r="H2">
         <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>323</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1433,7 +1458,120 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE57F960-E829-46B4-9A91-2BADBDAD02A6}">
+  <sheetPr codeName="Planilha9"/>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>C2*H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="1">
+        <v>55.9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3">
+        <f>C3*H3</f>
+        <v>11180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7C7A67-8CB9-4147-B05D-B3083ED33ED2}">
+  <sheetPr codeName="Planilha10"/>
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1486,13 +1624,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>199</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>200</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -1503,11 +1641,14 @@
       <c r="H2" s="1">
         <v>9762</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L2" t="s">
         <v>201</v>
-      </c>
-      <c r="L2" t="s">
-        <v>202</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
@@ -1519,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1536,11 +1677,14 @@
       <c r="H3" s="1">
         <v>4290</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L3" t="s">
         <v>204</v>
-      </c>
-      <c r="L3" t="s">
-        <v>205</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
@@ -1552,31 +1696,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>119</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>120</v>
       </c>
-      <c r="E4" t="s">
-        <v>121</v>
-      </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="1">
         <v>6624.7093000000004</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" t="s">
         <v>122</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>123</v>
-      </c>
-      <c r="L4" t="s">
-        <v>124</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
@@ -1588,31 +1735,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>206</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>207</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>208</v>
-      </c>
-      <c r="F5" t="s">
-        <v>209</v>
       </c>
       <c r="H5" s="1">
         <v>3781.2494999999999</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" t="s">
         <v>210</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>211</v>
-      </c>
-      <c r="L5" t="s">
-        <v>212</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
@@ -1624,19 +1774,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>213</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>214</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1644,15 +1794,18 @@
       <c r="H6" s="1">
         <v>3660.942</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
         <v>3660.942</v>
       </c>
       <c r="N6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1660,7 +1813,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1669,7 +1822,7 @@
         <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1677,14 +1830,17 @@
       <c r="H7" s="1">
         <v>1853.2878000000001</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" t="s">
         <v>219</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>220</v>
-      </c>
-      <c r="L7" t="s">
-        <v>221</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
@@ -1696,13 +1852,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>222</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>223</v>
       </c>
       <c r="E8" t="s">
         <v>83</v>
@@ -1713,15 +1869,18 @@
       <c r="H8" s="1">
         <v>1464.4187999999999</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M8">
         <f t="shared" ref="M8:M12" si="1">C8*H8</f>
         <v>1464.4187999999999</v>
       </c>
       <c r="N8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1729,7 +1888,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1741,19 +1900,22 @@
         <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H9" s="1">
         <v>3650.7208999999998</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K9" t="s">
         <v>227</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>228</v>
-      </c>
-      <c r="L9" t="s">
-        <v>229</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
@@ -1785,6 +1947,9 @@
       <c r="H10" s="1">
         <v>4042.22</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10" t="s">
         <v>106</v>
       </c>
@@ -1809,6 +1974,9 @@
       <c r="H11" s="1">
         <v>114.4</v>
       </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="J11" t="s">
         <v>108</v>
       </c>
@@ -1823,7 +1991,7 @@
         <v>114.4</v>
       </c>
       <c r="N11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1831,13 +1999,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
         <v>66</v>
@@ -1851,15 +2019,18 @@
       <c r="H12" s="1">
         <v>2434.3773999999999</v>
       </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
         <v>2434.3773999999999</v>
       </c>
       <c r="N12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1867,7 +2038,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1884,11 +2055,14 @@
       <c r="H13" s="1">
         <v>58.5</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="J13" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" t="s">
         <v>163</v>
-      </c>
-      <c r="L13" t="s">
-        <v>164</v>
       </c>
       <c r="M13">
         <f t="shared" ref="M13:M18" si="2">C13*H13</f>
@@ -1900,7 +2074,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1920,14 +2094,17 @@
       <c r="H14" s="1">
         <v>17.880199999999999</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
       <c r="J14" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" t="s">
         <v>166</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>167</v>
-      </c>
-      <c r="L14" t="s">
-        <v>168</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
@@ -1939,7 +2116,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1956,14 +2133,17 @@
       <c r="H15" s="1">
         <v>540.42899999999997</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
       <c r="J15" t="s">
+        <v>233</v>
+      </c>
+      <c r="K15" t="s">
         <v>234</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>235</v>
-      </c>
-      <c r="L15" t="s">
-        <v>236</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
@@ -1975,7 +2155,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1992,14 +2172,17 @@
       <c r="H16" s="1">
         <v>447.899</v>
       </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="J16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K16" t="s">
+        <v>237</v>
+      </c>
+      <c r="L16" t="s">
         <v>238</v>
-      </c>
-      <c r="L16" t="s">
-        <v>239</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
@@ -2011,7 +2194,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2028,14 +2211,17 @@
       <c r="H17" s="1">
         <v>851.87149999999997</v>
       </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
       <c r="J17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K17" t="s">
+        <v>240</v>
+      </c>
+      <c r="L17" t="s">
         <v>241</v>
-      </c>
-      <c r="L17" t="s">
-        <v>242</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
@@ -2064,6 +2250,9 @@
       <c r="H18" s="1">
         <v>598.2559</v>
       </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
       <c r="J18" t="s">
         <v>75</v>
       </c>
@@ -2100,6 +2289,9 @@
       <c r="H19" s="1">
         <v>237.9427</v>
       </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
       <c r="J19" t="s">
         <v>79</v>
       </c>
@@ -2119,7 +2311,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2130,14 +2322,17 @@
       <c r="H20" s="1">
         <v>2818.92</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
       <c r="J20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K20" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" t="s">
         <v>244</v>
-      </c>
-      <c r="L20" t="s">
-        <v>245</v>
       </c>
       <c r="M20">
         <f t="shared" si="3"/>
@@ -2149,7 +2344,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2160,14 +2355,17 @@
       <c r="H21" s="1">
         <v>951.5376</v>
       </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
       <c r="J21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K21" t="s">
+        <v>246</v>
+      </c>
+      <c r="L21" t="s">
         <v>247</v>
-      </c>
-      <c r="L21" t="s">
-        <v>248</v>
       </c>
       <c r="M21">
         <f t="shared" si="3"/>
@@ -2179,7 +2377,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2190,14 +2388,17 @@
       <c r="H22" s="1">
         <v>951.5376</v>
       </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
       <c r="J22" t="s">
+        <v>133</v>
+      </c>
+      <c r="K22" t="s">
         <v>134</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>135</v>
-      </c>
-      <c r="L22" t="s">
-        <v>136</v>
       </c>
       <c r="M22">
         <f t="shared" si="3"/>
@@ -2209,7 +2410,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2220,14 +2421,17 @@
       <c r="H23" s="1">
         <v>951.5376</v>
       </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
       <c r="J23" t="s">
+        <v>249</v>
+      </c>
+      <c r="K23" t="s">
         <v>250</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>251</v>
-      </c>
-      <c r="L23" t="s">
-        <v>252</v>
       </c>
       <c r="M23">
         <f t="shared" si="3"/>
@@ -2239,7 +2443,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2250,14 +2454,17 @@
       <c r="H24" s="1">
         <v>951.5376</v>
       </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
       <c r="J24" t="s">
+        <v>253</v>
+      </c>
+      <c r="K24" t="s">
         <v>254</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>255</v>
-      </c>
-      <c r="L24" t="s">
-        <v>256</v>
       </c>
       <c r="M24">
         <f t="shared" si="3"/>
@@ -2269,7 +2476,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2286,14 +2493,17 @@
       <c r="H25" s="1">
         <v>407.93220000000002</v>
       </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
       <c r="J25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K25" t="s">
+        <v>257</v>
+      </c>
+      <c r="L25" t="s">
         <v>258</v>
-      </c>
-      <c r="L25" t="s">
-        <v>259</v>
       </c>
       <c r="M25">
         <f>C25*H25</f>
@@ -2305,7 +2515,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2322,14 +2532,17 @@
       <c r="H26" s="1">
         <v>407.93220000000002</v>
       </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
       <c r="J26" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" t="s">
         <v>138</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>139</v>
-      </c>
-      <c r="L26" t="s">
-        <v>140</v>
       </c>
       <c r="M26">
         <f>C26*H26</f>
@@ -2341,7 +2554,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2358,14 +2571,17 @@
       <c r="H27" s="1">
         <v>380.75700000000001</v>
       </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
       <c r="J27" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" t="s">
         <v>142</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>143</v>
-      </c>
-      <c r="L27" t="s">
-        <v>144</v>
       </c>
       <c r="M27">
         <f>C27*H27</f>
@@ -2377,7 +2593,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2394,14 +2610,17 @@
       <c r="H28" s="1">
         <v>380.75700000000001</v>
       </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
       <c r="J28" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" t="s">
         <v>261</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>262</v>
-      </c>
-      <c r="L28" t="s">
-        <v>263</v>
       </c>
       <c r="M28">
         <f>C28*H28</f>
@@ -2423,6 +2642,9 @@
       </c>
       <c r="H29" s="1">
         <v>228.8</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>112</v>
@@ -2443,8 +2665,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53EE90D-BEE5-46DF-8A08-E5872CCB307E}">
+  <sheetPr codeName="Planilha11"/>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2497,16 +2720,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>190</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>191</v>
-      </c>
-      <c r="E2" t="s">
-        <v>192</v>
       </c>
       <c r="G2">
         <v>315</v>
@@ -2514,8 +2737,11 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M2">
         <f>C2*H2</f>
@@ -2527,16 +2753,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" t="s">
         <v>195</v>
-      </c>
-      <c r="E3" t="s">
-        <v>196</v>
       </c>
       <c r="G3">
         <v>261</v>
@@ -2544,8 +2770,11 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M3">
         <f>C3*H3</f>
@@ -2557,7 +2786,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -2574,11 +2803,14 @@
       <c r="H4" s="1">
         <v>58.5</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" t="s">
         <v>163</v>
-      </c>
-      <c r="L4" t="s">
-        <v>164</v>
       </c>
       <c r="M4">
         <f>C4*H4</f>
@@ -2590,7 +2822,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -2610,14 +2842,17 @@
       <c r="H5" s="1">
         <v>17.880199999999999</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" t="s">
         <v>166</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>167</v>
-      </c>
-      <c r="L5" t="s">
-        <v>168</v>
       </c>
       <c r="M5">
         <f>C5*H5</f>
@@ -2629,8 +2864,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D8AA5C-BB39-41EE-A899-DE73798F5E03}">
+  <sheetPr codeName="Planilha12"/>
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2683,32 +2919,35 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>156</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>157</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>158</v>
-      </c>
-      <c r="F2" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="1">
         <v>21170</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
         <v>21170</v>
       </c>
       <c r="N2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -2716,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -2733,11 +2972,14 @@
       <c r="H3" s="1">
         <v>58.5</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" t="s">
         <v>163</v>
-      </c>
-      <c r="L3" t="s">
-        <v>164</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
@@ -2749,7 +2991,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -2769,14 +3011,17 @@
       <c r="H4" s="1">
         <v>17.880199999999999</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" t="s">
         <v>166</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>167</v>
-      </c>
-      <c r="L4" t="s">
-        <v>168</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
@@ -2808,6 +3053,9 @@
       <c r="H5" s="1">
         <v>4042.22</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
         <v>106</v>
       </c>
@@ -2832,6 +3080,9 @@
       <c r="H6" s="1">
         <v>114.4</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6" t="s">
         <v>108</v>
       </c>
@@ -2846,7 +3097,7 @@
         <v>114.4</v>
       </c>
       <c r="N6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -2854,7 +3105,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2874,18 +3125,21 @@
       <c r="H7" s="1">
         <v>3649.386</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L7" t="s">
         <v>171</v>
-      </c>
-      <c r="L7" t="s">
-        <v>172</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
         <v>3649.386</v>
       </c>
       <c r="N7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="201.6" x14ac:dyDescent="0.3">
@@ -2893,7 +3147,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2901,15 +3155,18 @@
       <c r="H8" s="1">
         <v>609</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M8">
         <f>C8*H8</f>
         <v>1218</v>
       </c>
       <c r="N8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="259.2" x14ac:dyDescent="0.3">
@@ -2917,7 +3174,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2925,15 +3182,18 @@
       <c r="H9" s="1">
         <v>5501.3</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M9">
         <f>C9*H9</f>
         <v>5501.3</v>
       </c>
       <c r="N9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -2941,16 +3201,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>180</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>181</v>
-      </c>
-      <c r="E10" t="s">
-        <v>182</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2961,14 +3221,17 @@
       <c r="H10" s="1">
         <v>4555.9490999999998</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" t="s">
         <v>183</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>184</v>
-      </c>
-      <c r="L10" t="s">
-        <v>185</v>
       </c>
       <c r="M10">
         <f>C10*H10</f>
@@ -2980,13 +3243,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>186</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>187</v>
       </c>
       <c r="E11" t="s">
         <v>66</v>
@@ -3000,8 +3263,11 @@
       <c r="H11" s="1">
         <v>3729.7624000000001</v>
       </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="J11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M11">
         <f>C11*H11</f>
@@ -3013,8 +3279,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7973E647-054F-49F9-B094-50F00649C598}">
+  <sheetPr codeName="Planilha13"/>
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3067,12 +3334,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2">
         <v>180</v>
       </c>
       <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
       <c r="M2">
@@ -3085,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -3096,14 +3366,17 @@
       <c r="H3" s="1">
         <v>343.2</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" t="s">
         <v>148</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>149</v>
-      </c>
-      <c r="L3" t="s">
-        <v>150</v>
       </c>
       <c r="M3">
         <f>C3*H3</f>
@@ -3115,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4">
         <v>125</v>
@@ -3127,16 +3400,19 @@
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H4" s="1">
         <v>55.9</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" t="s">
         <v>153</v>
-      </c>
-      <c r="L4" t="s">
-        <v>154</v>
       </c>
       <c r="M4">
         <f>C4*H4</f>
@@ -3148,8 +3424,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5635CEFF-6DAC-44F7-AF3B-B06839DA92B9}">
+  <sheetPr codeName="Planilha14"/>
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3202,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3222,8 +3499,11 @@
       <c r="H2" s="1">
         <v>35139.747499999998</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
@@ -3235,31 +3515,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>119</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>120</v>
       </c>
-      <c r="E3" t="s">
-        <v>121</v>
-      </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1">
         <v>6624.7093000000004</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" t="s">
         <v>122</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>123</v>
-      </c>
-      <c r="L3" t="s">
-        <v>124</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
@@ -3271,7 +3554,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3280,29 +3563,32 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
         <v>126</v>
-      </c>
-      <c r="F4" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="1">
         <v>2711.1871999999998</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" t="s">
         <v>128</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>129</v>
-      </c>
-      <c r="L4" t="s">
-        <v>130</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
         <v>5422.3743999999997</v>
       </c>
       <c r="N4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -3330,6 +3616,9 @@
       <c r="H5" s="1">
         <v>4042.22</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
         <v>106</v>
       </c>
@@ -3354,6 +3643,9 @@
       <c r="H6" s="1">
         <v>114.4</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6" t="s">
         <v>108</v>
       </c>
@@ -3368,7 +3660,7 @@
         <v>114.4</v>
       </c>
       <c r="N6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -3376,7 +3668,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3387,14 +3679,17 @@
       <c r="H7" s="1">
         <v>951.5376</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" t="s">
         <v>134</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>135</v>
-      </c>
-      <c r="L7" t="s">
-        <v>136</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
@@ -3406,7 +3701,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3423,14 +3718,17 @@
       <c r="H8" s="1">
         <v>407.93220000000002</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" t="s">
         <v>138</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>139</v>
-      </c>
-      <c r="L8" t="s">
-        <v>140</v>
       </c>
       <c r="M8">
         <f>C8*H8</f>
@@ -3442,7 +3740,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3459,14 +3757,17 @@
       <c r="H9" s="1">
         <v>380.75700000000001</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" t="s">
         <v>142</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>143</v>
-      </c>
-      <c r="L9" t="s">
-        <v>144</v>
       </c>
       <c r="M9">
         <f>C9*H9</f>
@@ -3495,6 +3796,9 @@
       <c r="H10" s="1">
         <v>598.2559</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10" t="s">
         <v>75</v>
       </c>
@@ -3524,6 +3828,9 @@
       </c>
       <c r="H11" s="1">
         <v>228.8</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>112</v>
@@ -3544,8 +3851,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB46F02-7E04-40C4-BCD7-5E8D1640833A}">
+  <sheetPr codeName="Planilha15"/>
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3615,6 +3923,9 @@
       <c r="H2" s="1">
         <v>37394.5</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
         <v>36</v>
       </c>
@@ -3651,6 +3962,9 @@
       <c r="H3" s="1">
         <v>6235.6944000000003</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
         <v>43</v>
       </c>
@@ -3681,6 +3995,9 @@
       <c r="H4" s="1">
         <v>5193.9493000000002</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
         <v>48</v>
       </c>
@@ -3717,6 +4034,9 @@
       <c r="H5" s="1">
         <v>6627.0442999999996</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
         <v>55</v>
       </c>
@@ -3753,6 +4073,9 @@
       <c r="H6" s="1">
         <v>540.46199999999999</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6" t="s">
         <v>61</v>
       </c>
@@ -3783,6 +4106,9 @@
       <c r="H7" s="1">
         <v>447.88380000000001</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7" t="s">
         <v>61</v>
       </c>
@@ -3813,6 +4139,9 @@
       <c r="H8" s="1">
         <v>811.30139999999994</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8" t="s">
         <v>61</v>
       </c>
@@ -3846,6 +4175,9 @@
       <c r="H9" s="1">
         <v>3843.9929000000002</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9" t="s">
         <v>71</v>
       </c>
@@ -3879,6 +4211,9 @@
       <c r="H10" s="1">
         <v>598.2559</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10" t="s">
         <v>75</v>
       </c>
@@ -3915,6 +4250,9 @@
       <c r="H11" s="1">
         <v>237.9427</v>
       </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="J11" t="s">
         <v>79</v>
       </c>
@@ -3945,6 +4283,9 @@
       <c r="H12" s="1">
         <v>951.5376</v>
       </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12" t="s">
         <v>84</v>
       </c>
@@ -3975,6 +4316,9 @@
       <c r="H13" s="1">
         <v>951.5376</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="J13" t="s">
         <v>88</v>
       </c>
@@ -4011,6 +4355,9 @@
       <c r="H14" s="1">
         <v>407.93220000000002</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
       <c r="J14" t="s">
         <v>92</v>
       </c>
@@ -4041,6 +4388,9 @@
       <c r="H15" s="1">
         <v>407.93220000000002</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
       <c r="J15" t="s">
         <v>94</v>
       </c>
@@ -4077,6 +4427,9 @@
       <c r="H16" s="1">
         <v>380.75700000000001</v>
       </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="J16" t="s">
         <v>100</v>
       </c>
@@ -4116,6 +4469,9 @@
       <c r="H17" s="1">
         <v>4042.22</v>
       </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
       <c r="J17" t="s">
         <v>106</v>
       </c>
@@ -4140,6 +4496,9 @@
       <c r="H18" s="1">
         <v>114.4</v>
       </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
       <c r="J18" t="s">
         <v>108</v>
       </c>
@@ -4169,6 +4528,9 @@
       </c>
       <c r="H19" s="1">
         <v>228.8</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>112</v>
@@ -4220,7 +4582,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -4253,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4261,7 +4623,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4269,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4277,7 +4639,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4285,7 +4647,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4293,7 +4655,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4301,7 +4663,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4309,7 +4671,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4317,7 +4679,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4325,7 +4687,15 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4334,7 +4704,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45BA660-5787-41D0-A56C-F5837FDDB69E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709E1921-AFA9-4765-8770-5CA7FD763A8A}">
+  <sheetPr codeName="Planilha16"/>
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4388,7 +4759,246 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45BA660-5787-41D0-A56C-F5837FDDB69E}">
+  <sheetPr codeName="Planilha5"/>
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2275</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M2">
+        <f>C2*H2</f>
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2912</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M3">
+        <f>C3*H3</f>
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4042.22</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4">
+        <f>C4*H4</f>
+        <v>4042.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="1">
+        <v>55.9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5">
+        <f>C5*H5</f>
+        <v>1956.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6">
+        <f>C6*H6</f>
+        <v>343.20000000000005</v>
+      </c>
+      <c r="N6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2452C4FA-E426-4DA3-93AF-C99F7CA501C7}">
+  <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4441,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4458,14 +5068,17 @@
       <c r="H2" s="1">
         <v>7682.1502</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K2" t="s">
         <v>300</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>301</v>
-      </c>
-      <c r="L2" t="s">
-        <v>302</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
@@ -4477,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4486,22 +5099,25 @@
         <v>53</v>
       </c>
       <c r="E3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" t="s">
         <v>304</v>
-      </c>
-      <c r="F3" t="s">
-        <v>305</v>
       </c>
       <c r="H3" s="1">
         <v>4259.8543</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K3" t="s">
         <v>306</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>307</v>
-      </c>
-      <c r="L3" t="s">
-        <v>308</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
@@ -4513,13 +5129,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
@@ -4530,8 +5146,11 @@
       <c r="H4" s="1">
         <v>5262.66</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
@@ -4543,25 +5162,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>311</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>312</v>
-      </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H5" s="1">
         <v>2985.2159999999999</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
@@ -4573,7 +5195,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4590,8 +5212,11 @@
       <c r="H6" s="1">
         <v>1571.7</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
@@ -4603,7 +5228,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4612,22 +5237,25 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
         <v>126</v>
-      </c>
-      <c r="F7" t="s">
-        <v>127</v>
       </c>
       <c r="H7" s="1">
         <v>2711.1871999999998</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" t="s">
         <v>128</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>129</v>
-      </c>
-      <c r="L7" t="s">
-        <v>130</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
@@ -4659,6 +5287,9 @@
       <c r="H8" s="1">
         <v>4042.22</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8" t="s">
         <v>106</v>
       </c>
@@ -4683,6 +5314,9 @@
       <c r="H9" s="1">
         <v>114.4</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9" t="s">
         <v>108</v>
       </c>
@@ -4697,7 +5331,7 @@
         <v>114.4</v>
       </c>
       <c r="N9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4705,7 +5339,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -4713,14 +5347,17 @@
       <c r="H10" s="1">
         <v>109</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10" t="s">
+        <v>316</v>
+      </c>
+      <c r="K10" t="s">
         <v>317</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>318</v>
-      </c>
-      <c r="L10" t="s">
-        <v>319</v>
       </c>
       <c r="M10">
         <f>C10*H10</f>
@@ -4742,6 +5379,9 @@
       </c>
       <c r="H11" s="1">
         <v>228.8</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>112</v>
@@ -4762,8 +5402,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DF0E52-1267-4513-8904-2069DDCC23C2}">
+  <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4816,16 +5457,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
         <v>70</v>
@@ -4833,14 +5474,17 @@
       <c r="H2" s="1">
         <v>556.41989999999998</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K2" t="s">
         <v>271</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>272</v>
-      </c>
-      <c r="L2" t="s">
-        <v>273</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
@@ -4852,7 +5496,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -4872,14 +5516,17 @@
       <c r="H3" s="1">
         <v>71.5</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K3" t="s">
         <v>280</v>
       </c>
-      <c r="K3" t="s">
-        <v>281</v>
-      </c>
       <c r="L3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
@@ -4891,7 +5538,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -4899,8 +5546,11 @@
       <c r="H4" s="1">
         <v>325</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
@@ -4912,7 +5562,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5">
         <v>140</v>
@@ -4932,14 +5582,17 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
+        <v>284</v>
+      </c>
+      <c r="K5" t="s">
         <v>285</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>286</v>
-      </c>
-      <c r="L5" t="s">
-        <v>287</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
@@ -4951,7 +5604,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -4960,7 +5613,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -4968,14 +5621,17 @@
       <c r="H6" s="1">
         <v>2275</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6" t="s">
+        <v>289</v>
+      </c>
+      <c r="K6" t="s">
         <v>290</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>291</v>
-      </c>
-      <c r="L6" t="s">
-        <v>292</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
@@ -4987,7 +5643,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -4996,7 +5652,7 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -5004,11 +5660,14 @@
       <c r="H7" s="1">
         <v>2912</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L7" t="s">
         <v>295</v>
-      </c>
-      <c r="L7" t="s">
-        <v>296</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
@@ -5031,6 +5690,9 @@
       <c r="H8" s="1">
         <v>114.4</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8" t="s">
         <v>108</v>
       </c>
@@ -5045,7 +5707,7 @@
         <v>572</v>
       </c>
       <c r="N8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5053,8 +5715,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6371D86-9FBA-4CA5-BB69-D7B90A92814E}">
+  <sheetPr codeName="Planilha8"/>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5107,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5127,8 +5790,11 @@
       <c r="H2" s="1">
         <v>2741.3067999999998</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M2">
         <f>C2*H2</f>
@@ -5151,6 +5817,9 @@
       <c r="H3" s="1">
         <v>114.4</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
         <v>108</v>
       </c>
@@ -5170,16 +5839,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>70</v>
@@ -5187,14 +5856,17 @@
       <c r="H4" s="1">
         <v>556.41989999999998</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" t="s">
         <v>271</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>272</v>
-      </c>
-      <c r="L4" t="s">
-        <v>273</v>
       </c>
       <c r="M4">
         <f>C4*H4</f>
@@ -5206,7 +5878,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -5217,123 +5889,21 @@
       <c r="H5" s="1">
         <v>520</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
+        <v>274</v>
+      </c>
+      <c r="K5" t="s">
         <v>275</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>276</v>
-      </c>
-      <c r="L5" t="s">
-        <v>277</v>
       </c>
       <c r="M5">
         <f>C5*H5</f>
         <v>2080</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE57F960-E829-46B4-9A91-2BADBDAD02A6}">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <f>C2*H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="1">
-        <v>55.9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" t="s">
-        <v>154</v>
-      </c>
-      <c r="M3">
-        <f>C3*H3</f>
-        <v>11180</v>
       </c>
     </row>
   </sheetData>
